--- a/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
+++ b/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77FB3B5-E75D-4488-8D92-E42D5DC35DE3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62B36A1-DFFE-4D1A-B161-C8A187768228}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="758" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="758" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjektOrga" sheetId="19" r:id="rId1"/>
@@ -318,8 +318,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -8920,16 +8920,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8944,8 +8944,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4019549" y="2200275"/>
-          <a:ext cx="1581151" cy="476250"/>
+          <a:off x="904875" y="4705350"/>
+          <a:ext cx="809626" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst/>
@@ -8981,7 +8981,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Datenbank</a:t>
+            <a:t>DB1</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8990,23 +8990,78 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>395288</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>105455</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Gerader Verbinder 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B70C4041-B0D9-42AA-BC27-8B3357E7F18A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1309688" y="5181600"/>
+          <a:ext cx="1585913" cy="457880"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>697706</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2381</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Textfeld 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C6288C-7E31-4D68-9BA6-01A0E87E8E38}"/>
+        <xdr:cNvPr id="8" name="Textfeld 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A688D34D-F8A8-42A6-A423-F935B04D6C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9014,8 +9069,854 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5838825" y="2066925"/>
-          <a:ext cx="1733550" cy="742950"/>
+          <a:off x="8465344" y="3655219"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>490538</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>318764</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Grafik 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9F3C20-9FD7-4DD3-8C9A-2B43647A046D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11811000" y="90488"/>
+          <a:ext cx="1033463" cy="409251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>502424</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>26176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>144553</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>376238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Grafik 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B44AADA3-6208-4EB1-8B42-538A6264876E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10570349" y="26176"/>
+          <a:ext cx="1166129" cy="531037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>134710</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rechteck 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C43D4B8-E704-4919-8E3D-979048C06958}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895601" y="5419725"/>
+          <a:ext cx="1352550" cy="439510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="69B42E"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>einheitliches</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Lademodell</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>125185</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rechteck 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CBA063E-D4EF-490C-9917-7DC8614223F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5876926" y="5410200"/>
+          <a:ext cx="1352550" cy="439510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="69B42E"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Speicher-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> und Erfassungsmodell</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>723901</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rechteck 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF8982E7-B1A2-4F94-A802-6452C23B76D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10191751" y="5095875"/>
+          <a:ext cx="1352550" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="69B42E"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>einheitliches</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Reportingmodell</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Buchungslogik</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Zylinder 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96512C50-C37A-4D1E-A1C4-FA77CC3543B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="5667375"/>
+          <a:ext cx="809626" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="6350"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>DB1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>105455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Gerader Verbinder 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0EFE7CF-1E84-439B-A51E-E7C234A81D30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="4"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1685926" y="5639480"/>
+          <a:ext cx="1209675" cy="266020"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>105455</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Gerader Verbinder 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B040B7E-0AD9-47CB-9514-0EBA2F76F851}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4248151" y="5629955"/>
+          <a:ext cx="1628775" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>714376</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>86405</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Gerader Verbinder 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87DB04EE-9107-4CE8-AA80-028E339E5309}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="3"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9248776" y="5400675"/>
+          <a:ext cx="942975" cy="219755"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Gerader Verbinder 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3C2861-AFF6-4B72-9E7A-5BF52A285737}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="0"/>
+          <a:endCxn id="30" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6553201" y="4271963"/>
+          <a:ext cx="2819399" cy="1138237"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rechteck 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6582CB7A-1D7F-484D-A103-6B19A9BDF3F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9372600" y="3952876"/>
+          <a:ext cx="1581149" cy="638174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="69B42E"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Direktauswertung Speichermodell</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GuV, Cash, Events</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Textfeld 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06555AE3-FAB3-4F4B-9F3F-38FC05CA5A2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8277225" y="4181475"/>
+          <a:ext cx="771525" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9052,21 +9953,16 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Ziel</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="900" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- Teilziel</a:t>
-          </a:r>
+            <a:t>SQL Abfrage</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9074,34 +9970,141 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>714376</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>115660</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rechteck 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBB3718A-EF08-48A7-B846-EBF4BB903810}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7896226" y="5400675"/>
+          <a:ext cx="1352550" cy="439510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>individuelles</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Calculation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Modell</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>86405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95930</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Gerader Verbinder 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B70C4041-B0D9-42AA-BC27-8B3357E7F18A}"/>
+        <xdr:cNvPr id="35" name="Gerader Verbinder 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57A649BF-E5B5-455B-9885-FB43FB88B52D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="34" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2838450" y="2752725"/>
-          <a:ext cx="847725" cy="1362075"/>
+        <a:xfrm flipV="1">
+          <a:off x="7229476" y="5620430"/>
+          <a:ext cx="666750" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9112,6 +10115,7 @@
               <a:lumMod val="75000"/>
             </a:schemeClr>
           </a:solidFill>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -9131,20 +10135,25 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>697706</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>2381</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="65" cy="172227"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Textfeld 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A688D34D-F8A8-42A6-A423-F935B04D6C91}"/>
+        <xdr:cNvPr id="41" name="Textfeld 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05A30C05-28A0-49F8-9AFA-8F7D0631D23D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9152,13 +10161,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8465344" y="3655219"/>
-          <a:ext cx="65" cy="172227"/>
+          <a:off x="3143250" y="5915025"/>
+          <a:ext cx="866775" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -9171,119 +10183,3435 @@
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>load Tabellen</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Textfeld 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3A88FC5-9E7C-4459-A25D-8EB88F85C420}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591174" y="5943599"/>
+          <a:ext cx="1800225" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Tabellen mit Anzeige / Erfassung in der DataFactory</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>XLS oder Weboberfläche</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Textfeld 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6C9B85-9891-4B41-B78C-9E6CE292EBEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8134350" y="5981700"/>
+          <a:ext cx="933450" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>T-SQL Stored Procedures</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Textfeld 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2530BE16-D962-445B-AC5D-09EDB43106B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10429875" y="5819775"/>
+          <a:ext cx="933450" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Standard result Tabellen</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rechteck 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8895E25E-032E-4983-BC1B-3DF4421FA7FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5857876" y="3181350"/>
+          <a:ext cx="1352550" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>individuelle</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Automatisierungs-routinen</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Gerader Verbinder 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65BE8CCD-142C-4162-8FED-3FECFF568F93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6534151" y="3790950"/>
+          <a:ext cx="19050" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>490538</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>318764</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Grafik 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9F3C20-9FD7-4DD3-8C9A-2B43647A046D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Textfeld 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8888A6C9-8A72-43DD-9571-80B741C14D90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11811000" y="90488"/>
-          <a:ext cx="1033463" cy="409251"/>
+          <a:off x="5476875" y="3943349"/>
+          <a:ext cx="1228724" cy="419101"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>502424</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>26176</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>144553</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>376238</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Grafik 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B44AADA3-6208-4EB1-8B42-538A6264876E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Flex Action</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DoCustomJob</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rechteck 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FD302DC-5FBF-471E-A528-32B36C453DBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10570349" y="26176"/>
-          <a:ext cx="1166129" cy="531037"/>
+          <a:off x="4791075" y="4867275"/>
+          <a:ext cx="85725" cy="1485900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Textfeld 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66FCC826-D9EC-471F-9700-DC70D5E8AB6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438650" y="6429375"/>
+          <a:ext cx="866775" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>90 % Firewall</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Rechteck 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7838D03A-EB43-44A4-A73A-7B70125261F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="7734300"/>
+          <a:ext cx="8801099" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="69B42E"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Process</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Logging</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rechteck 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4761B09-3997-46E3-9F34-E5D56BBF222B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962275" y="9277350"/>
+          <a:ext cx="8801099" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="69B42E"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Monitoring</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> und Eventsystem</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Gerader Verbinder 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F55D46-D832-40CC-AC36-78846AD40C77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="53" idx="2"/>
+          <a:endCxn id="54" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7362825" y="7981950"/>
+          <a:ext cx="47625" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Textfeld 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA5061D9-E084-413C-AF29-176CDFF932F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="8505826"/>
+          <a:ext cx="933450" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Webtransfer</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Rechteck 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{689F6EB8-8AEE-4EEE-A472-EC3DFD5625BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9363075" y="3276601"/>
+          <a:ext cx="1581149" cy="638174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Direktauswertung Speichermodell</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>individuell</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Textfeld 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F66FF12-24B3-48F1-9871-05C3D79EBC44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647699" y="6438900"/>
+          <a:ext cx="1609725" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Beliebige Quellsysteme</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="900" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Datengranularität meist</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Mandant</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Kostenstelle</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Sachkonto</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Textfeld 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C689044-8DD1-4B3E-8CB3-38CB576CE9DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6410324" y="7181850"/>
+          <a:ext cx="2124075" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Tabelle,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Logeinträge aus beliebigen Prozeduren</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Textfeld 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A99C3F59-C14D-445A-8165-43EF3807F45F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6572250" y="9744075"/>
+          <a:ext cx="1714500" cy="495301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Logtabelle und ggf. Erwartungstabelle </a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Textfeld 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15ABCA4B-EE40-402E-BE73-3724656CF806}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12372974" y="4619624"/>
+          <a:ext cx="2352675" cy="1743075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Faktentabelle</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> für Buchungen pro Position</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>result.fBuchungsjournal</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FactoryID	für Quelle und Rechte</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ProductlineID	für Quelle und Rechte</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ProductID	pos = DF, neg = Calc</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Buchungskreis</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Buchungsposition	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MandantenID	juristischer Mandant</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SachkontoID	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>KostenstellenID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Buchungstext</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Wert</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Textfeld 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{706377C4-4463-4DEF-9484-DF763E93A9A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12353924" y="2362199"/>
+          <a:ext cx="3200401" cy="2133601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Dimension</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> um Reportdaten in Auswertungstruktur zu bringen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Freie Auswertungshierarchien</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>result.dReports</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Buchungskreis</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Buchungsposition	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R1_Ebene1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R1_Ebene2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R1_Ebene3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="900" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R3_Ebene1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R3_Ebene2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R3_Ebene3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="900" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Spaltenzahl abhängig von Anzahl Reports und Tiefe</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Textfeld 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF00FB76-854F-4632-A56E-0F71E5D640F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12449174" y="6610350"/>
+          <a:ext cx="3200401" cy="1533526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Dimension</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> für Sachkontodefinition mit Kontohierarchie</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>result.dKonten</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MandantenID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>KontoID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>KontoName</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Kontotyp (GuV / Bilanz / Deb / Kred / Statistik)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ebene1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ebene2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ebene3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ebene4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="900" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Textfeld 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F32C2F4-D7D5-4D2D-B620-28D5A2A1D55A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12506324" y="8391525"/>
+          <a:ext cx="3200401" cy="1533526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Dimension</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> für Kostenstellen mit Hierarchie</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>result.dKostenstelle</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MandantenID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>KostenstellenID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>KostenstellenName</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>KostenstellenTyp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ebene1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ebene2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ebene3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ebene4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="900" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Textfeld 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B59167AC-913D-467B-8F70-8EB8846F94C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12315824" y="1085850"/>
+          <a:ext cx="3200401" cy="1019176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Vier primäre Auswertungshierarchien</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>result.dReports</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DataFactory Hierarchie (Factory / Productline / Product)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Reporthierarchien für Buchungspositionen (Ebene1 ....N)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Sachkontohierarchie</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Kostenstellenhierarche</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Textfeld 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DFD009-B5DD-402D-A925-527E60EA452E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12506324" y="10172699"/>
+          <a:ext cx="3200401" cy="876301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Dimension</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> für Factorygliederung mit kF</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>result.dFactories</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FactoryKey</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FactoryID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FactoryName</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Verantwortlicher</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="900" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Textfeld 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27EC2A40-87AD-4D9D-A668-293C862FE6DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12506324" y="11134724"/>
+          <a:ext cx="3200401" cy="876301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Dimension</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> für Productlinegliederung mit kPL</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>result.dProductlines</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ProductLineKey</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ProductlineID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ProductLineName</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Verantwortlicher</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="900" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="Textfeld 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8122A23B-F56E-4C44-9239-6FB123DF2734}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12487274" y="12125325"/>
+          <a:ext cx="3533776" cy="1685926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Dimension</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> für Productgliederung incl. negativer Products und kP</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>result.dProducts</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ProductKey	pos=DF neg = calc</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ProductID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ProductName</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Verantwortlicher</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Globalattribut 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Globalattribut 25</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="900" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="Textfeld 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{768E4F8C-F3D1-4271-9280-7DDC2F9C8A89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6610349" y="11420474"/>
+          <a:ext cx="2352675" cy="2495551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Die IST</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Werte werden in das Buchungsjournal geladen mit</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FactoryID	kF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ProductlineID	kPL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ProductID	kP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Buchungskreis	IST</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Buchungsposition	IST</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MandantenID	MandantenID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SachkontoID	KontenID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>KostenstellenID	KostenstellenID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Buchungstext	Buchungstext</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Wert	Wert</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="900" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Der PLAN - IST Vergleich erfolgt dann immer über die Sachkonten und Kostenstellenhierarchie</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>681</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="Gerader Verbinder 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5344B090-39E2-4E1A-A0E2-C380BEE124BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2952751" y="6810375"/>
+          <a:ext cx="7696199" cy="57831"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="Textfeld 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC8848EE-8B1B-43FF-97AC-8882C87CE130}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9410699" y="6581776"/>
+          <a:ext cx="1257301" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Direktes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> IST laden</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -16347,8 +20675,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2665378" y="2515701"/>
-          <a:ext cx="1674357" cy="716573"/>
+          <a:off x="2551078" y="2549038"/>
+          <a:ext cx="1521957" cy="754673"/>
           <a:chOff x="2625813" y="2696309"/>
           <a:chExt cx="1521225" cy="754673"/>
         </a:xfrm>
@@ -16574,8 +20902,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4516893" y="1761760"/>
-          <a:ext cx="3185535" cy="767130"/>
+          <a:off x="4250193" y="1795097"/>
+          <a:ext cx="3028372" cy="767130"/>
           <a:chOff x="4360830" y="1932843"/>
           <a:chExt cx="3039362" cy="769328"/>
         </a:xfrm>
@@ -16777,8 +21105,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4952634" y="2674694"/>
-          <a:ext cx="2705833" cy="704117"/>
+          <a:off x="4633546" y="2717556"/>
+          <a:ext cx="2601058" cy="732692"/>
           <a:chOff x="4747846" y="2857500"/>
           <a:chExt cx="2608385" cy="732692"/>
         </a:xfrm>
@@ -17080,8 +21408,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17790136" y="2000340"/>
-          <a:ext cx="1683360" cy="682004"/>
+          <a:off x="16594748" y="2033677"/>
+          <a:ext cx="1611923" cy="691529"/>
           <a:chOff x="16734692" y="2171423"/>
           <a:chExt cx="1609725" cy="693727"/>
         </a:xfrm>
@@ -17679,8 +22007,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8590294" y="2098799"/>
-          <a:ext cx="1731508" cy="605203"/>
+          <a:off x="8166431" y="2132136"/>
+          <a:ext cx="1521958" cy="614728"/>
           <a:chOff x="2625813" y="2696309"/>
           <a:chExt cx="1521225" cy="616926"/>
         </a:xfrm>
@@ -35691,20 +40019,20 @@
       <c r="C4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
@@ -35714,10 +40042,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
@@ -35738,41 +40066,36 @@
         <v>37</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
+      <c r="D13" s="12"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
+      <c r="D14" s="12"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
+      <c r="D15" s="12"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
+      <c r="D16" s="12"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C13:D13"/>
@@ -35781,6 +40104,11 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35892,8 +40220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35961,7 +40289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:U65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>

--- a/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
+++ b/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62B36A1-DFFE-4D1A-B161-C8A187768228}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D39915-90CB-49CD-B31E-F968D8B3B975}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="758" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -318,8 +318,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -11668,7 +11668,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>result.fBuchungsjournal</a:t>
+            <a:t>result.fBuchungsjournal_Plan</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -13234,15 +13234,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
+      <xdr:colOff>361948</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13257,8 +13257,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6610349" y="11420474"/>
-          <a:ext cx="2352675" cy="2495551"/>
+          <a:off x="6610348" y="11420474"/>
+          <a:ext cx="4095751" cy="3048001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13306,7 +13306,20 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t> Werte werden in das Buchungsjournal geladen mit</a:t>
+            <a:t> Werte werden in das Buchungsjournal geladen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> result.fBuchungsjournal_IST</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -13461,6 +13474,78 @@
             </a:rPr>
             <a:t>Der PLAN - IST Vergleich erfolgt dann immer über die Sachkonten und Kostenstellenhierarchie</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="900" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Es ist nicht die selbe Tabelle wie das Plan Buchungsjournal um:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- IST separat nachts zu laden</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- IST mit TRUNCATE statt DELETE löschen zu können</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- PLAN bei den Neuberechnungen mit TRUNCATE statt DELETE zu löschen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="900" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -40019,20 +40104,20 @@
       <c r="C4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
@@ -40042,10 +40127,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
@@ -40066,36 +40151,41 @@
         <v>37</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="11"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="12"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C14" s="10"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="11"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="12"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" s="10"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="11"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="12"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C16" s="10"/>
-      <c r="D16" s="12"/>
+      <c r="D16" s="11"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="12"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="11"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="12"/>
+      <c r="G17" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C13:D13"/>
@@ -40104,11 +40194,6 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40220,8 +40305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
+++ b/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D39915-90CB-49CD-B31E-F968D8B3B975}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF0CD14-D646-4CA0-8697-C95464D6D3F2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="758" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -318,8 +318,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -13692,6 +13692,225 @@
                 <a:lumMod val="85000"/>
                 <a:lumOff val="15000"/>
               </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Textfeld 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD3B6BF5-3A87-465A-997C-683D4C8257BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2724150" y="6467475"/>
+          <a:ext cx="866775" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>load.spMain</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Textfeld 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5D71516-3494-464D-942F-515FA3BD5B17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143501" y="6486525"/>
+          <a:ext cx="990600" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>import.spMain</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Textfeld 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{348E9BAF-63C5-43CE-B138-501C4CD8991E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391401" y="6457950"/>
+          <a:ext cx="990600" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>calc.spMain</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -40104,20 +40323,20 @@
       <c r="C4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
@@ -40127,10 +40346,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
@@ -40151,41 +40370,36 @@
         <v>37</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
+      <c r="D13" s="12"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
+      <c r="D14" s="12"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
+      <c r="D15" s="12"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
+      <c r="D16" s="12"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C13:D13"/>
@@ -40194,6 +40408,11 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40305,8 +40524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
+++ b/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF0CD14-D646-4CA0-8697-C95464D6D3F2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD16C6FD-79D7-42F4-BA8F-225A944782C4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="758" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="758" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjektOrga" sheetId="19" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>Monitoring</t>
   </si>
@@ -196,12 +196,93 @@
   <si>
     <t>Azure Webservice Verbindung per PowerQuery</t>
   </si>
+  <si>
+    <t>Klassifizierung Arbeitsumgebung</t>
+  </si>
+  <si>
+    <t>Sehr gut</t>
+  </si>
+  <si>
+    <t>gut</t>
+  </si>
+  <si>
+    <t>schlecht</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>SQL Server</t>
+  </si>
+  <si>
+    <t>Fernzugriff</t>
+  </si>
+  <si>
+    <t>RDP permanent</t>
+  </si>
+  <si>
+    <t>Teamviewer permant</t>
+  </si>
+  <si>
+    <t>Teamviewer on Demand</t>
+  </si>
+  <si>
+    <t>RDP on Demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server </t>
+  </si>
+  <si>
+    <t>eigener DF Server</t>
+  </si>
+  <si>
+    <t>geteilt mit CP etc.</t>
+  </si>
+  <si>
+    <t>Universalserver</t>
+  </si>
+  <si>
+    <t>auf eigenem Server</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>2016+</t>
+  </si>
+  <si>
+    <t>StandardLizenz</t>
+  </si>
+  <si>
+    <t>Express Lizenz</t>
+  </si>
+  <si>
+    <t>keine Admin Rechte</t>
+  </si>
+  <si>
+    <t>Admin Rechte</t>
+  </si>
+  <si>
+    <t>2012+</t>
+  </si>
+  <si>
+    <t>TabularModel</t>
+  </si>
+  <si>
+    <t>über separaten TerminalServer / PC</t>
+  </si>
+  <si>
+    <t>Firewall blockt GitHub etc.</t>
+  </si>
+  <si>
+    <t>Browser based VPN permanent</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +319,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -253,7 +342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -298,11 +387,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -318,8 +416,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -13989,7 +14091,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Server</a:t>
+            <a:t>[Servername]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -14076,7 +14178,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Server</a:t>
+            <a:t>[Servername]</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="1100" baseline="0">
             <a:solidFill>
@@ -14098,7 +14200,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>ApplikationsServer </a:t>
+            <a:t>ApplikationsServer DataFactory </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -14118,16 +14220,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14142,7 +14244,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3067050" y="10172700"/>
+          <a:off x="1152525" y="7562850"/>
           <a:ext cx="2257425" cy="2809874"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14182,7 +14284,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Server</a:t>
+            <a:t>[Server</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="de-DE" sz="1100" baseline="0">
@@ -14193,7 +14295,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t> SQL 1</a:t>
+            <a:t>name]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -14207,7 +14309,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Datenbankserver</a:t>
+            <a:t>Datenbankserver Vorsystem</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="1100">
             <a:solidFill>
@@ -14224,23 +14326,129 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>242888</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>300038</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Gerader Verbinder 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1281113" y="3419475"/>
+          <a:ext cx="57150" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>300038</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>242888</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Gerader Verbinder 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="0"/>
+          <a:endCxn id="27" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1338263" y="3124200"/>
+          <a:ext cx="3752850" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Zylinder 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+        <xdr:cNvPr id="27" name="Rechteck 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14248,8 +14456,106 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752601" y="5229225"/>
-          <a:ext cx="1009650" cy="742950"/>
+          <a:off x="4143375" y="2647950"/>
+          <a:ext cx="1895475" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DataFactory</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>XLS Client</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Zylinder 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514475" y="8286750"/>
+          <a:ext cx="1524000" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst/>
@@ -14285,20 +14591,8 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>DataFactory</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>BFW</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t> 2018</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
+            <a:t>RIOS</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14306,129 +14600,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>242888</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>300038</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Gerader Verbinder 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="2" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1281113" y="3419475"/>
-          <a:ext cx="57150" cy="676275"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>300038</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>242888</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Gerader Verbinder 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="0"/>
-          <a:endCxn id="27" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1338263" y="3124200"/>
-          <a:ext cx="3752850" cy="971550"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Rechteck 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+        <xdr:cNvPr id="28" name="Rechteck 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14436,7 +14624,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4143375" y="2647950"/>
+          <a:off x="323850" y="1028700"/>
           <a:ext cx="1895475" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14493,7 +14681,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>XLS Client</a:t>
+            <a:t>WebClient</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="1100">
             <a:solidFill>
@@ -14510,334 +14698,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Zylinder 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3343275" y="12192000"/>
-          <a:ext cx="1524000" cy="552450"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="6350"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>RIOS</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Zylinder 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3343275" y="11430000"/>
-          <a:ext cx="1524000" cy="552450"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="6350"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>DataFactoryTransfer</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Zylinder 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2847976" y="5248275"/>
-          <a:ext cx="1009650" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="6350"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>DataFactory</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>proDi</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t> 2018</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Rechteck 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="323850" y="1028700"/>
-          <a:ext cx="1895475" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>DataFactory</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>WebClient</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>314324</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -14854,8 +14722,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1352550" y="1619250"/>
-          <a:ext cx="1733550" cy="276225"/>
+          <a:off x="2266949" y="1552575"/>
+          <a:ext cx="2028825" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14892,7 +14760,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>http://Coplan/[ClusterName]</a:t>
+            <a:t>http://Coplan:5000/[ClusterName]</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="900" baseline="0">
             <a:solidFill>
@@ -14968,10 +14836,10 @@
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>109538</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14989,68 +14857,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1338263" y="6905624"/>
-          <a:ext cx="2857500" cy="790576"/>
+          <a:off x="2252663" y="6838949"/>
+          <a:ext cx="28575" cy="723901"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Gerader Verbinder 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE223FB-BCBE-4BB3-AC33-1911CF8165E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="25" idx="3"/>
-          <a:endCxn id="23" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4124325" y="9048750"/>
-          <a:ext cx="0" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="stealth"/>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -15280,15 +15092,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15303,8 +15115,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2314576" y="4524375"/>
-          <a:ext cx="1152524" cy="742950"/>
+          <a:off x="1514475" y="4743450"/>
+          <a:ext cx="1295399" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst/>
@@ -15340,14 +15152,11 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>DataFactory</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
+            <a:t>DataFactory_</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t>Calculation 2018</a:t>
+            <a:t>2018</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="1100"/>
         </a:p>
@@ -15357,16 +15166,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>442913</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>404813</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>242888</xdr:colOff>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>204788</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>4764</xdr:rowOff>
+      <xdr:rowOff>52389</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15381,8 +15190,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5414963" y="6715126"/>
-          <a:ext cx="1323975" cy="433388"/>
+          <a:off x="2357438" y="7029451"/>
+          <a:ext cx="1323975" cy="461963"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15584,15 +15393,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>681038</xdr:colOff>
+      <xdr:colOff>681037</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>349128</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>34070</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15607,8 +15416,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8467726" y="2209800"/>
-          <a:ext cx="1296865" cy="1115158"/>
+          <a:off x="7967662" y="2300287"/>
+          <a:ext cx="1824037" cy="1547814"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15654,16 +15463,45 @@
                 <a:srgbClr val="203864"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>SQL</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
+            <a:t>SQL Server 2017</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
               <a:solidFill>
                 <a:srgbClr val="203864"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> Managementstudio</a:t>
-          </a:r>
+            <a:t>SQL Server AnalysisServices Tabular</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SQL Managementstudio 17.X</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SQL Server DataTools</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:srgbClr val="203864"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -40323,20 +40161,20 @@
       <c r="C4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
@@ -40346,10 +40184,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
@@ -40370,36 +40208,41 @@
         <v>37</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="11"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="12"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C14" s="10"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="11"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="12"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" s="10"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="11"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="12"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C16" s="10"/>
-      <c r="D16" s="12"/>
+      <c r="D16" s="11"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="12"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="11"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="12"/>
+      <c r="G17" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C13:D13"/>
@@ -40408,11 +40251,6 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40524,7 +40362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -40553,10 +40391,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40564,28 +40402,147 @@
     <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="1"/>
     <col min="3" max="3" width="4.140625" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" customWidth="1"/>
+    <col min="18" max="18" width="21.28515625" customWidth="1"/>
+    <col min="19" max="19" width="33.85546875" customWidth="1"/>
+    <col min="20" max="20" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:5" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:20" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E7" s="3"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q8" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q10" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R11" t="s">
+        <v>62</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q13" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="R13" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="S13" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T13" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q15" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="S15" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="T15" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="Q17" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="R17" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="S17" s="15">
+        <v>2013</v>
+      </c>
+      <c r="T17" s="15">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" s="4"/>
+      <c r="Q19" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="R19" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="S19" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="T19" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="R20" t="s">
+        <v>72</v>
+      </c>
+      <c r="S20" t="s">
+        <v>72</v>
+      </c>
+      <c r="T20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="R21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="R22" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
+++ b/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19512934-A4E5-4ADE-A258-A18E6AA1E15A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1517F35-05BA-44F4-A31E-06B11A2FE641}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="135">
   <si>
     <t>Monitoring</t>
   </si>
@@ -496,6 +496,24 @@
   <si>
     <t>einheitliche Methodik über viele Projekte hinweg</t>
   </si>
+  <si>
+    <t>Mitwirkungspflichten des Kunden definieren</t>
+  </si>
+  <si>
+    <t>Der Kunde sollte das System testen - und dazu auch explizit verpflichtet werden. Mit einer Testliste und Erledigungsprotokoll</t>
+  </si>
+  <si>
+    <t>dbo.Main</t>
+  </si>
+  <si>
+    <t>alle Funktionalität sollte in der Prozedur dbo.Main enden - wenn man diese (nachts) aufruft, aktualisiert sich das gesamte System</t>
+  </si>
+  <si>
+    <t>dieser ruft typischer staging.spMain, load.spMain, import.spMain, calc.spMain auf, welche dann die Unterprozeduren enthalten.</t>
+  </si>
+  <si>
+    <t>Idealeweise kann man staging…..calc pro Modul getrennt laufen lassen</t>
+  </si>
 </sst>
 </file>
 
@@ -653,15 +671,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1335,8 +1353,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1352,7 +1370,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11277600" y="2038350"/>
-          <a:ext cx="4933950" cy="1885950"/>
+          <a:ext cx="4933950" cy="1619250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -43367,10 +43385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE89A27-A0F0-4951-A5E1-991F8FA81B66}">
-  <dimension ref="B1:D55"/>
+  <dimension ref="B1:D62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -43416,7 +43434,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="14" t="s">
         <v>81</v>
       </c>
     </row>
@@ -43446,168 +43464,201 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="14" t="s">
         <v>114</v>
       </c>
     </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D19" s="14"/>
+    </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B20" s="10" t="s">
-        <v>82</v>
+      <c r="C20" s="1" t="s">
+        <v>129</v>
       </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B21" s="10"/>
-      <c r="C21" s="1" t="s">
-        <v>115</v>
+      <c r="D21" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B22" s="10"/>
-      <c r="D22" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B23" s="10"/>
-      <c r="D23" s="17" t="s">
-        <v>99</v>
+      <c r="B23" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" s="10"/>
-      <c r="D24" s="17"/>
+      <c r="C24" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B25" s="10"/>
-      <c r="D25" s="17"/>
+      <c r="D25" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C26" s="1" t="s">
-        <v>83</v>
+      <c r="B26" s="10"/>
+      <c r="D26" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D27" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="B27" s="10"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D28" s="1" t="s">
-        <v>85</v>
+      <c r="C28" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D29" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D30" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D31" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D32" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D33" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D34" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="D33" s="17" t="s">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D35" s="14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C36" s="1" t="s">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C37" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="D37" s="1" t="s">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D38" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C39" s="1" t="s">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C40" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="D40" s="1" t="s">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D41" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="D41" s="17" t="s">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D42" s="14" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="D42" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D43" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D44" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C45" s="1" t="s">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C46" s="1" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="D46" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D47" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D48" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D49" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D50" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D51" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B53" s="10" t="s">
-        <v>91</v>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D52" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C54" s="1" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D55" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D56" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D57" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B60" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C61" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D62" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -43792,23 +43843,23 @@
       <c r="B4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="8"/>
@@ -43817,11 +43868,11 @@
       <c r="B10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="8"/>
@@ -43841,37 +43892,42 @@
       <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="16"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="16"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C14" s="14"/>
-      <c r="D14" s="16"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="16"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C15" s="14"/>
-      <c r="D15" s="16"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="16"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C16" s="14"/>
-      <c r="D16" s="16"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="16"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C17" s="14"/>
-      <c r="D17" s="16"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="16"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C13:D13"/>
@@ -43880,11 +43936,6 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -44040,13 +44091,13 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="N11" s="20" t="s">
+      <c r="N11" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="O11" s="20" t="s">
+      <c r="O11" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="P11" s="20" t="s">
+      <c r="P11" s="17" t="s">
         <v>68</v>
       </c>
     </row>
@@ -44065,10 +44116,10 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="O14" s="19" t="s">
+      <c r="O14" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P14" s="19" t="s">
+      <c r="P14" s="16" t="s">
         <v>107</v>
       </c>
     </row>
@@ -44079,10 +44130,10 @@
       <c r="N16" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="15">
         <v>2013</v>
       </c>
-      <c r="P16" s="18" t="s">
+      <c r="P16" s="15" t="s">
         <v>103</v>
       </c>
     </row>

--- a/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
+++ b/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1517F35-05BA-44F4-A31E-06B11A2FE641}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1542ECE5-0D4A-4A82-9D55-0497E7CD59EB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="758" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BestPracticeWorkflow" sheetId="22" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="136">
   <si>
     <t>Monitoring</t>
   </si>
@@ -514,6 +514,9 @@
   <si>
     <t>Idealeweise kann man staging…..calc pro Modul getrennt laufen lassen</t>
   </si>
+  <si>
+    <t>mehrere Zugänge</t>
+  </si>
 </sst>
 </file>
 
@@ -678,8 +681,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -21776,7 +21779,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>http://Coplan:5000/[ClusterName]</a:t>
+            <a:t>http://[Server]:5000/[ClusterName]</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="900" baseline="0">
             <a:solidFill>
@@ -21961,7 +21964,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Linked Server: SQL2, SQL1</a:t>
+            <a:t>Linked Server: SQLX</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="900" baseline="0">
             <a:solidFill>
@@ -22115,21 +22118,16 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>User: DataFactory</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="900" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(Leserechte)</a:t>
-          </a:r>
+            <a:t>User: DataFactory\saxess</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="de-DE" sz="900" baseline="0">
@@ -22461,15 +22459,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -22484,8 +22482,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4038600" y="5629275"/>
-          <a:ext cx="1971675" cy="600075"/>
+          <a:off x="3810000" y="6410325"/>
+          <a:ext cx="1857375" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22547,6 +22545,458 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:srgbClr val="203864"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Textfeld 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2AD8138-ACEB-4289-8A65-236733399108}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3781424" y="5553075"/>
+          <a:ext cx="4695825" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Benutzer</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Domäne\saxess  - das</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> ist unser Entwicklungsuser mit Adminrechten, Passwort läuft nie ab</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:srgbClr val="203864"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Domäne\FactoryService - ein einfacher Domänenbenutzer, KEIN Admin JEMALS IRGENDWO, PW läuft nie ab</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AD Gruppe "DataFactoryUser" o.ä. anlegen und im SQL Server für DataFactory berechtigen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:srgbClr val="203864"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Der Zugriff</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> auf alle Vorsystem sollte mit dem User saxess erfolgen.</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:srgbClr val="203864"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:srgbClr val="203864"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>800101</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Textfeld 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93CB4B8A-05B5-4696-B6B9-98BF66A48978}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6076950" y="8896350"/>
+          <a:ext cx="2771776" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Testsystem / Produktivsystem</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Mehrere</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Parallele Datenbanken</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:srgbClr val="203864"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:srgbClr val="203864"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:srgbClr val="203864"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Probleme:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Alle</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Scripte mit harten Referenzen funktionieren  ggf. nicht</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:srgbClr val="203864"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:srgbClr val="203864"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>2143126</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Textfeld 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52590095-F3EC-40BD-9A74-2AAA0B0FA285}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11144250" y="8829675"/>
+          <a:ext cx="3838576" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Mehrere VPN Zugänge</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- Github</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> pro User installieren</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- ein Repo als Master definieren (von dort nimmt Powershell etc. die Scripte)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- alle anderen Repos sind wie lokale Testumgebungen zu führen</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:srgbClr val="203864"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:srgbClr val="203864"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Probleme:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>mehrere</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> User können nicht gleichzeitig ein lokales Repo bearbeiten</a:t>
+          </a:r>
           <a:endParaRPr lang="de-DE" sz="800">
             <a:solidFill>
               <a:srgbClr val="203864"/>
@@ -43387,277 +43837,277 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE89A27-A0F0-4951-A5E1-991F8FA81B66}">
   <dimension ref="B1:D62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.6640625" style="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:4" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:4" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D10" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D17" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D18" s="14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="C24" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="D25" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
       <c r="D26" s="14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D35" s="14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D38" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D41" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D42" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D43" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D44" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D48" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D49" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D50" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D51" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D52" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D55" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D56" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D57" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D62" s="1" t="s">
         <v>95</v>
       </c>
@@ -43677,18 +44127,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43702,18 +44152,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
@@ -43732,18 +44182,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
     </row>
   </sheetData>
@@ -43760,18 +44210,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>30</v>
       </c>
@@ -43790,19 +44240,19 @@
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.6640625" style="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>77</v>
       </c>
@@ -43822,62 +44272,62 @@
       <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.73046875" style="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:7" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:7" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="18"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C12" s="8" t="s">
         <v>38</v>
       </c>
@@ -43888,46 +44338,41 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
+      <c r="D13" s="20"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
+      <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
+      <c r="D14" s="20"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
+      <c r="G14" s="20"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
+      <c r="D15" s="20"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
+      <c r="G15" s="20"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
+      <c r="D16" s="20"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
+      <c r="G16" s="20"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
+      <c r="D17" s="20"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
+      <c r="G17" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C13:D13"/>
@@ -43936,6 +44381,11 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -43951,18 +44401,18 @@
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>32</v>
       </c>
@@ -43982,19 +44432,19 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.73046875" style="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>75</v>
       </c>
@@ -44008,40 +44458,40 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" style="1"/>
-    <col min="3" max="3" width="4.1328125" customWidth="1"/>
-    <col min="13" max="13" width="16.73046875" customWidth="1"/>
-    <col min="14" max="14" width="21.265625" customWidth="1"/>
-    <col min="15" max="15" width="33.86328125" customWidth="1"/>
-    <col min="16" max="16" width="48.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="4.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="21.28515625" customWidth="1"/>
+    <col min="15" max="15" width="33.85546875" customWidth="1"/>
+    <col min="16" max="16" width="48.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:16" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:16" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M5" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M6" s="11"/>
       <c r="N6" s="11" t="s">
         <v>52</v>
@@ -44053,7 +44503,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E7" s="3"/>
       <c r="M7" s="13" t="s">
         <v>57</v>
@@ -44068,7 +44518,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="N8" t="s">
         <v>59</v>
       </c>
@@ -44076,103 +44526,108 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="M10" s="13" t="s">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M11" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N11" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O11" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="P11" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="N11" s="17" t="s">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N12" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="O11" s="17" t="s">
+      <c r="O12" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="P11" s="17" t="s">
+      <c r="P12" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="M13" s="13" t="s">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="N14" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="O13" s="12" t="s">
+      <c r="O14" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="P14" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="O14" s="16" t="s">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O15" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P14" s="16" t="s">
+      <c r="P15" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="M16" s="13" t="s">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M17" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="N17" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O17" s="15">
         <v>2013</v>
       </c>
-      <c r="P16" s="15" t="s">
+      <c r="P17" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.45">
-      <c r="M18" s="13" t="s">
+    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D19" s="4"/>
+      <c r="M19" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="N19" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="O18" s="12" t="s">
+      <c r="O19" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="P18" s="12" t="s">
+      <c r="P19" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.45">
-      <c r="D19" s="4"/>
-      <c r="N19" t="s">
+    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
         <v>67</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O20" t="s">
         <v>67</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.45">
-      <c r="N20" t="s">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.45">
-      <c r="N21" t="s">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
         <v>69</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P22" t="s">
         <v>104</v>
       </c>
     </row>
@@ -44191,24 +44646,24 @@
       <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:21" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:21" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
       <c r="Q2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:21" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -44216,13 +44671,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:21" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.65">
+    <row r="4" spans="2:21" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="Q4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="R6" t="s">
         <v>20</v>
       </c>
@@ -44230,7 +44685,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="R7" t="s">
         <v>21</v>
       </c>
@@ -44238,7 +44693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="R8" t="s">
         <v>22</v>
       </c>
@@ -44246,7 +44701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="R9" t="s">
         <v>26</v>
       </c>
@@ -44254,7 +44709,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="R10" t="s">
         <v>28</v>
       </c>
@@ -44262,67 +44717,67 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O48" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="49" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P49" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="51" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="52" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P52" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="54" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O54" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="55" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="56" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P56" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="57" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="58" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P58" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="61" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O61" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="63" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O63" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="64" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P64" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="65" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P65" t="s">
         <v>50</v>
       </c>
@@ -44342,79 +44797,79 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.73046875" style="1"/>
-    <col min="4" max="4" width="32.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.73046875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.73046875" style="1"/>
-    <col min="8" max="8" width="43.86328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.73046875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.73046875" style="1" customWidth="1"/>
-    <col min="11" max="16" width="10.73046875" style="1"/>
-    <col min="17" max="19" width="5.86328125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.59765625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.59765625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="14.86328125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.265625" style="1" customWidth="1"/>
-    <col min="24" max="26" width="10.73046875" style="1"/>
-    <col min="27" max="27" width="13.59765625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.73046875" style="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" style="1"/>
+    <col min="4" max="4" width="32.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" style="1"/>
+    <col min="8" max="8" width="43.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16" width="10.7109375" style="1"/>
+    <col min="17" max="19" width="5.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" style="1" customWidth="1"/>
+    <col min="24" max="26" width="10.7109375" style="1"/>
+    <col min="27" max="27" width="13.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" style="1"/>
     <col min="29" max="29" width="12" style="1" customWidth="1"/>
-    <col min="30" max="37" width="10.73046875" style="1"/>
+    <col min="30" max="37" width="10.7109375" style="1"/>
     <col min="38" max="38" width="16" style="1" customWidth="1"/>
-    <col min="39" max="16384" width="10.73046875" style="1"/>
+    <col min="39" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:33" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="2:33" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="21" x14ac:dyDescent="0.65">
+    <row r="4" spans="2:33" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:33" ht="81.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:33" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG12" s="1" t="s">
         <v>14</v>
       </c>
@@ -44434,156 +44889,156 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="2:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.65">
+    <row r="3" spans="2:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
     </row>
-    <row r="9" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="14:14" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="14:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="14:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="14:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="14:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="14:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O40" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="14:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="14:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="81" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="82" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="83" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="84" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="85" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="T85" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U86" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U87" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U88" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U89" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="91" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="92" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="93" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="94" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="95" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="96" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="175" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G175" t="s">
         <v>4</v>
       </c>

--- a/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
+++ b/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1542ECE5-0D4A-4A82-9D55-0497E7CD59EB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA3EEC4-7583-4CFA-B03F-3E02907E194A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="758" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BestPracticeWorkflow" sheetId="22" r:id="rId1"/>
@@ -681,8 +681,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -18531,6 +18531,161 @@
               <a:schemeClr val="accent6"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Gerader Verbinder 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE38DDA0-A6E1-4A0C-BDA8-CD9F40E28C43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3371850" y="4914900"/>
+          <a:ext cx="9526" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Textfeld 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52638080-EDC0-4DC8-A878-4E934B09081C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2162174" y="3933825"/>
+          <a:ext cx="2828926" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Integritätstest</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> nach Staging</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Sind für alle Faken die Dimensionselement da ?</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -44236,8 +44391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D715D0F7-B5C7-4BE6-89CF-E12996553F72}">
   <dimension ref="B1:B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44296,20 +44451,20 @@
       <c r="C4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
@@ -44319,10 +44474,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
@@ -44343,36 +44498,41 @@
         <v>37</v>
       </c>
       <c r="C13" s="18"/>
-      <c r="D13" s="20"/>
+      <c r="D13" s="19"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C14" s="18"/>
-      <c r="D14" s="20"/>
+      <c r="D14" s="19"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="20"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" s="18"/>
-      <c r="D15" s="20"/>
+      <c r="D15" s="19"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="20"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C16" s="18"/>
-      <c r="D16" s="20"/>
+      <c r="D16" s="19"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="20"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="18"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="19"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="20"/>
+      <c r="G17" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C13:D13"/>
@@ -44381,11 +44541,6 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -44460,7 +44615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>

--- a/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
+++ b/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E789735C-B03D-4509-8E90-3AF32E75429E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05587397-1CA5-46E4-A8D5-EF8A1B095C46}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="758" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BestPracticeWorkflow" sheetId="22" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="lblAuftraggeber">ProjektOrga!$C$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -14779,6 +14779,156 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>87995</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Grafik 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37419A1B-2D77-42B1-B067-A86BE5167F1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2314575" y="5676900"/>
+          <a:ext cx="685800" cy="707120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>170208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Grafik 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AE28EE9-0F72-4C31-8E98-33A68DA7B902}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="5695950"/>
+          <a:ext cx="666750" cy="579783"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>459457</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Grafik 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26F2DB5F-40E9-41B3-805C-5F89D0220DEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2828926" y="6391275"/>
+          <a:ext cx="345156" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -38832,273 +38982,273 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.73046875" style="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:4" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:4" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D10" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D17" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D18" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="C24" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="D25" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
       <c r="D26" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D35" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D38" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D41" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D42" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D43" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D44" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D48" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D49" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D50" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D51" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D52" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D55" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D56" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D57" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D62" s="1" t="s">
         <v>94</v>
       </c>
@@ -39118,18 +39268,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
@@ -39148,18 +39298,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
     </row>
   </sheetData>
@@ -39176,18 +39326,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>30</v>
       </c>
@@ -39202,28 +39352,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748EB88F-C287-42AC-A455-699A81E8AA37}">
   <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.73046875" style="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:7" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:7" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>33</v>
       </c>
@@ -39235,7 +39385,7 @@
       <c r="F4" s="19"/>
       <c r="G4" s="20"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>35</v>
       </c>
@@ -39245,10 +39395,10 @@
       <c r="F8" s="19"/>
       <c r="G8" s="20"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>36</v>
       </c>
@@ -39258,10 +39408,10 @@
       <c r="F10" s="19"/>
       <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C12" s="8" t="s">
         <v>38</v>
       </c>
@@ -39272,7 +39422,7 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
@@ -39281,25 +39431,25 @@
       <c r="F13" s="18"/>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C14" s="18"/>
       <c r="D14" s="20"/>
       <c r="F14" s="18"/>
       <c r="G14" s="20"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" s="18"/>
       <c r="D15" s="20"/>
       <c r="F15" s="18"/>
       <c r="G15" s="20"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C16" s="18"/>
       <c r="D16" s="20"/>
       <c r="F16" s="18"/>
       <c r="G16" s="20"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="18"/>
       <c r="D17" s="20"/>
       <c r="F17" s="18"/>
@@ -39335,18 +39485,18 @@
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>32</v>
       </c>
@@ -39366,19 +39516,19 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.73046875" style="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>75</v>
       </c>
@@ -39394,38 +39544,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" style="1"/>
-    <col min="3" max="3" width="4.1328125" customWidth="1"/>
-    <col min="13" max="13" width="16.73046875" customWidth="1"/>
-    <col min="14" max="14" width="21.265625" customWidth="1"/>
-    <col min="15" max="15" width="33.86328125" customWidth="1"/>
-    <col min="16" max="16" width="48.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="4.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="21.28515625" customWidth="1"/>
+    <col min="15" max="15" width="33.85546875" customWidth="1"/>
+    <col min="16" max="16" width="48.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:16" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:16" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M5" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M6" s="11"/>
       <c r="N6" s="11" t="s">
         <v>52</v>
@@ -39437,7 +39587,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E7" s="3"/>
       <c r="M7" s="13" t="s">
         <v>57</v>
@@ -39452,7 +39602,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="N8" t="s">
         <v>59</v>
       </c>
@@ -39460,12 +39610,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="N9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M11" s="13" t="s">
         <v>62</v>
       </c>
@@ -39479,7 +39629,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="N12" s="17" t="s">
         <v>69</v>
       </c>
@@ -39490,7 +39640,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M14" s="13" t="s">
         <v>55</v>
       </c>
@@ -39504,7 +39654,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="O15" s="16" t="s">
         <v>105</v>
       </c>
@@ -39512,7 +39662,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="M17" s="13" t="s">
         <v>65</v>
       </c>
@@ -39526,7 +39676,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D19" s="4"/>
       <c r="M19" s="13" t="s">
         <v>56</v>
@@ -39541,7 +39691,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
       <c r="N20" t="s">
         <v>67</v>
       </c>
@@ -39552,12 +39702,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
       <c r="N21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
       <c r="N22" t="s">
         <v>69</v>
       </c>
@@ -39580,24 +39730,24 @@
       <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:21" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:21" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
       <c r="Q2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:21" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -39605,13 +39755,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:21" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.65">
+    <row r="4" spans="2:21" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="Q4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="R6" t="s">
         <v>20</v>
       </c>
@@ -39619,7 +39769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="R7" t="s">
         <v>21</v>
       </c>
@@ -39627,7 +39777,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="R8" t="s">
         <v>22</v>
       </c>
@@ -39635,7 +39785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="R9" t="s">
         <v>26</v>
       </c>
@@ -39643,7 +39793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="R10" t="s">
         <v>28</v>
       </c>
@@ -39651,67 +39801,67 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O48" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="49" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P49" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="51" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="52" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P52" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="54" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O54" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="55" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="56" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P56" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="57" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="58" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P58" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="61" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O61" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="63" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O63" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="64" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P64" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="65" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P65" t="s">
         <v>50</v>
       </c>
@@ -39731,79 +39881,79 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.73046875" style="1"/>
-    <col min="4" max="4" width="32.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.73046875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.73046875" style="1"/>
-    <col min="8" max="8" width="43.86328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.73046875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.73046875" style="1" customWidth="1"/>
-    <col min="11" max="16" width="10.73046875" style="1"/>
-    <col min="17" max="19" width="5.86328125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.59765625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.59765625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="14.86328125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.265625" style="1" customWidth="1"/>
-    <col min="24" max="26" width="10.73046875" style="1"/>
-    <col min="27" max="27" width="13.59765625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.73046875" style="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" style="1"/>
+    <col min="4" max="4" width="32.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" style="1"/>
+    <col min="8" max="8" width="43.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16" width="10.7109375" style="1"/>
+    <col min="17" max="19" width="5.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" style="1" customWidth="1"/>
+    <col min="24" max="26" width="10.7109375" style="1"/>
+    <col min="27" max="27" width="13.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" style="1"/>
     <col min="29" max="29" width="12" style="1" customWidth="1"/>
-    <col min="30" max="37" width="10.73046875" style="1"/>
+    <col min="30" max="37" width="10.7109375" style="1"/>
     <col min="38" max="38" width="16" style="1" customWidth="1"/>
-    <col min="39" max="16384" width="10.73046875" style="1"/>
+    <col min="39" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:33" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="2:33" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="21" x14ac:dyDescent="0.65">
+    <row r="4" spans="2:33" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:33" ht="81.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:33" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG12" s="1" t="s">
         <v>14</v>
       </c>
@@ -39823,156 +39973,156 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="2:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.65">
+    <row r="3" spans="2:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
     </row>
-    <row r="9" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="14:14" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="14:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="14:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="14:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="14:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="14:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O40" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="14:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="14:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="81" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="82" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="83" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="84" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="85" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="T85" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U86" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U87" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U88" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U89" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="91" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="92" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="93" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="94" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="95" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="96" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="175" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G175" t="s">
         <v>4</v>
       </c>
@@ -39992,18 +40142,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
+++ b/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05587397-1CA5-46E4-A8D5-EF8A1B095C46}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A645D3F9-F50F-42A7-AC47-6DEAEE26B892}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="758" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,8 +677,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -14231,15 +14231,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14254,8 +14254,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3810000" y="6410325"/>
-          <a:ext cx="1857375" cy="638175"/>
+          <a:off x="4057650" y="6515100"/>
+          <a:ext cx="1971675" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14337,8 +14337,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14353,8 +14353,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3781424" y="5553075"/>
-          <a:ext cx="4695825" cy="762000"/>
+          <a:off x="4038599" y="5305425"/>
+          <a:ext cx="5038725" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14437,6 +14437,23 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="203864"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>User des SQL Agent (Domäne\Server$) in DataFactory als User berechtigen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="de-DE" sz="800">
             <a:solidFill>
               <a:srgbClr val="203864"/>
@@ -14881,16 +14898,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>771526</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>459457</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>297532</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14919,8 +14936,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2828926" y="6391275"/>
-          <a:ext cx="345156" cy="323850"/>
+          <a:off x="2867026" y="2762250"/>
+          <a:ext cx="345156" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -38982,273 +38999,273 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.73046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:4" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C6" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D9" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D10" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C12" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D13" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D14" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D15" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D16" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D17" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D18" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C20" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D21" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B23" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" s="10"/>
       <c r="C24" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B25" s="10"/>
       <c r="D25" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B26" s="10"/>
       <c r="D26" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B27" s="10"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C28" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D29" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D30" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D31" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D32" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D33" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D34" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D35" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C37" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D38" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C40" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D41" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D42" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D43" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D44" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C46" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D47" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D48" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D49" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D50" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D51" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D52" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C54" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D55" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D56" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D57" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B60" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C61" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D62" s="1" t="s">
         <v>94</v>
       </c>
@@ -39268,18 +39285,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
@@ -39298,18 +39315,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7"/>
     </row>
   </sheetData>
@@ -39326,18 +39343,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7" t="s">
         <v>30</v>
       </c>
@@ -39356,62 +39373,62 @@
       <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.73046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:7" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="19"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="19"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="8"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C12" s="8" t="s">
         <v>38</v>
       </c>
@@ -39422,41 +39439,46 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="18"/>
-      <c r="D13" s="20"/>
+      <c r="D13" s="19"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C14" s="18"/>
-      <c r="D14" s="20"/>
+      <c r="D14" s="19"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="20"/>
+      <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C15" s="18"/>
-      <c r="D15" s="20"/>
+      <c r="D15" s="19"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="20"/>
+      <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C16" s="18"/>
-      <c r="D16" s="20"/>
+      <c r="D16" s="19"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="20"/>
+      <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C17" s="18"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="19"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="20"/>
+      <c r="G17" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C13:D13"/>
@@ -39465,11 +39487,6 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -39485,18 +39502,18 @@
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7" t="s">
         <v>32</v>
       </c>
@@ -39516,19 +39533,19 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.73046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7" t="s">
         <v>75</v>
       </c>
@@ -39545,37 +39562,37 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="4.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="21.28515625" customWidth="1"/>
-    <col min="15" max="15" width="33.85546875" customWidth="1"/>
-    <col min="16" max="16" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" style="1"/>
+    <col min="3" max="3" width="4.1328125" customWidth="1"/>
+    <col min="13" max="13" width="16.73046875" customWidth="1"/>
+    <col min="14" max="14" width="21.265625" customWidth="1"/>
+    <col min="15" max="15" width="33.86328125" customWidth="1"/>
+    <col min="16" max="16" width="48.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:16" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:16" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
       <c r="M5" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
       <c r="M6" s="11"/>
       <c r="N6" s="11" t="s">
         <v>52</v>
@@ -39587,7 +39604,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
       <c r="E7" s="3"/>
       <c r="M7" s="13" t="s">
         <v>57</v>
@@ -39602,7 +39619,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
       <c r="N8" t="s">
         <v>59</v>
       </c>
@@ -39610,12 +39627,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
       <c r="N9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
       <c r="M11" s="13" t="s">
         <v>62</v>
       </c>
@@ -39629,7 +39646,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
       <c r="N12" s="17" t="s">
         <v>69</v>
       </c>
@@ -39640,7 +39657,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
       <c r="M14" s="13" t="s">
         <v>55</v>
       </c>
@@ -39654,7 +39671,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
       <c r="O15" s="16" t="s">
         <v>105</v>
       </c>
@@ -39662,7 +39679,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.45">
       <c r="M17" s="13" t="s">
         <v>65</v>
       </c>
@@ -39676,7 +39693,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D19" s="4"/>
       <c r="M19" s="13" t="s">
         <v>56</v>
@@ -39691,7 +39708,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:16" x14ac:dyDescent="0.45">
       <c r="N20" t="s">
         <v>67</v>
       </c>
@@ -39702,12 +39719,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.45">
       <c r="N21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.45">
       <c r="N22" t="s">
         <v>69</v>
       </c>
@@ -39730,24 +39747,24 @@
       <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:21" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:21" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7"/>
       <c r="Q2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:21" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -39755,13 +39772,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:21" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:21" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.65">
       <c r="B4" s="2"/>
       <c r="Q4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
       <c r="R6" t="s">
         <v>20</v>
       </c>
@@ -39769,7 +39786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
       <c r="R7" t="s">
         <v>21</v>
       </c>
@@ -39777,7 +39794,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
       <c r="R8" t="s">
         <v>22</v>
       </c>
@@ -39785,7 +39802,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
       <c r="R9" t="s">
         <v>26</v>
       </c>
@@ -39793,7 +39810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
       <c r="R10" t="s">
         <v>28</v>
       </c>
@@ -39801,67 +39818,67 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="15:15" x14ac:dyDescent="0.45">
       <c r="O48" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="15:16" x14ac:dyDescent="0.45">
       <c r="P49" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="15:16" x14ac:dyDescent="0.45">
       <c r="P51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="15:16" x14ac:dyDescent="0.45">
       <c r="P52" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O54" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="15:16" x14ac:dyDescent="0.45">
       <c r="P55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="15:16" x14ac:dyDescent="0.45">
       <c r="P56" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="15:16" x14ac:dyDescent="0.45">
       <c r="P57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="15:16" x14ac:dyDescent="0.45">
       <c r="P58" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O61" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O63" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="15:16" x14ac:dyDescent="0.45">
       <c r="P64" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P65" t="s">
         <v>50</v>
       </c>
@@ -39881,79 +39898,79 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" style="1"/>
-    <col min="4" max="4" width="32.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" style="1"/>
-    <col min="8" max="8" width="43.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="1" customWidth="1"/>
-    <col min="11" max="16" width="10.7109375" style="1"/>
-    <col min="17" max="19" width="5.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.28515625" style="1" customWidth="1"/>
-    <col min="24" max="26" width="10.7109375" style="1"/>
-    <col min="27" max="27" width="13.5703125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.73046875" style="1"/>
+    <col min="4" max="4" width="32.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.73046875" style="1"/>
+    <col min="8" max="8" width="43.86328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.73046875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.73046875" style="1" customWidth="1"/>
+    <col min="11" max="16" width="10.73046875" style="1"/>
+    <col min="17" max="19" width="5.86328125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.59765625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.59765625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.86328125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.265625" style="1" customWidth="1"/>
+    <col min="24" max="26" width="10.73046875" style="1"/>
+    <col min="27" max="27" width="13.59765625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.73046875" style="1"/>
     <col min="29" max="29" width="12" style="1" customWidth="1"/>
-    <col min="30" max="37" width="10.7109375" style="1"/>
+    <col min="30" max="37" width="10.73046875" style="1"/>
     <col min="38" max="38" width="16" style="1" customWidth="1"/>
-    <col min="39" max="16384" width="10.7109375" style="1"/>
+    <col min="39" max="16384" width="10.73046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:33" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="2:33" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:33" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" ht="21" x14ac:dyDescent="0.65">
       <c r="B4" s="2"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.45">
       <c r="AG6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:33" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:33" ht="81.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AG7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.45">
       <c r="AG8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.45">
       <c r="AG9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.45">
       <c r="AG10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.45">
       <c r="AG11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.45">
       <c r="AG12" s="1" t="s">
         <v>14</v>
       </c>
@@ -39973,156 +39990,156 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="2:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.65">
       <c r="B3" s="2"/>
     </row>
-    <row r="9" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="14:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="14:14" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="14:14" x14ac:dyDescent="0.45">
       <c r="N31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="14:15" x14ac:dyDescent="0.45">
       <c r="N38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="14:15" x14ac:dyDescent="0.45">
       <c r="O39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="14:15" x14ac:dyDescent="0.45">
       <c r="O40" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="14:15" x14ac:dyDescent="0.45">
       <c r="O41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="14:15" x14ac:dyDescent="0.45">
       <c r="O42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="81" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="82" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="83" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="84" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="85" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="T85" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="U86" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="U87" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="U88" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="U89" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="91" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="92" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="93" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="94" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="95" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="96" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="175" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G175" t="s">
         <v>4</v>
       </c>
@@ -40142,18 +40159,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
+++ b/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A645D3F9-F50F-42A7-AC47-6DEAEE26B892}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A67678-7E00-419B-9BA4-FFCFB4B0E728}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="758" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,8 +677,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -12818,23 +12818,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rechteck 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+        <xdr:cNvPr id="30" name="Rechteck 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F75EF229-4507-4F80-8EC5-65F2A8EDE9D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12842,8 +12842,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="209550" y="4095750"/>
-          <a:ext cx="2257425" cy="2809874"/>
+          <a:off x="4162425" y="2362199"/>
+          <a:ext cx="2543175" cy="1962151"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12874,7 +12874,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0">
+            <a:rPr lang="de-DE" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="75000"/>
@@ -12882,13 +12882,10 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>[Servername]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100">
+            <a:t>[Fileserver</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="75000"/>
@@ -12896,8 +12893,30 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Datenbankserver</a:t>
-          </a:r>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Deployment Ordner</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12905,23 +12924,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rechteck 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+        <xdr:cNvPr id="2" name="Rechteck 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12929,8 +12948,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="352425" y="2362200"/>
-          <a:ext cx="1895475" cy="904875"/>
+          <a:off x="209550" y="4095750"/>
+          <a:ext cx="2257425" cy="2809874"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12961,7 +12980,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="de-DE" sz="1100">
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="75000"/>
@@ -12971,19 +12990,11 @@
             </a:rPr>
             <a:t>[Servername]</a:t>
           </a:r>
-          <a:endParaRPr lang="de-DE" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0">
+            <a:rPr lang="de-DE" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="75000"/>
@@ -12991,19 +13002,8 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>ApplikationsServer DataFactory </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
+            <a:t>Datenbankserver</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -13012,22 +13012,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>695324</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rechteck 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+        <xdr:cNvPr id="3" name="Rechteck 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13035,8 +13035,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="7219950"/>
-          <a:ext cx="2390775" cy="1514475"/>
+          <a:off x="1104900" y="2400300"/>
+          <a:ext cx="2305049" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13075,8 +13075,19 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>[Server</a:t>
-          </a:r>
+            <a:t>[Servername]</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="de-DE" sz="1100" baseline="0">
               <a:solidFill>
@@ -13086,22 +13097,11 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>name]</a:t>
+            <a:t>ApplikationsServer DataFactory </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Datenbankserver Vorsystem</a:t>
-          </a:r>
           <a:endParaRPr lang="de-DE" sz="1100">
             <a:solidFill>
               <a:schemeClr val="tx1">
@@ -13117,14 +13117,120 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rechteck 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="7219950"/>
+          <a:ext cx="2390775" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>[Server</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>name]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Datenbankserver Vorsystem</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>242888</xdr:colOff>
+      <xdr:colOff>300038</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>300038</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -13143,9 +13249,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1281113" y="3419475"/>
-          <a:ext cx="57150" cy="676275"/>
+        <a:xfrm flipH="1">
+          <a:off x="2252663" y="3352800"/>
+          <a:ext cx="4762" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -13171,13 +13277,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>290513</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>300038</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>509588</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -13192,13 +13298,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="0"/>
-          <a:endCxn id="27" idx="2"/>
+          <a:endCxn id="27" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2386013" y="2743200"/>
-          <a:ext cx="2676525" cy="1114425"/>
+          <a:off x="2252663" y="3119438"/>
+          <a:ext cx="2071687" cy="909637"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -13223,16 +13329,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13247,8 +13353,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4057650" y="2295525"/>
-          <a:ext cx="2009775" cy="447675"/>
+          <a:off x="4324350" y="2886075"/>
+          <a:ext cx="1895475" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13392,15 +13498,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13415,7 +13521,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323850" y="1028700"/>
+          <a:off x="1333500" y="933450"/>
           <a:ext cx="1895475" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13569,13 +13675,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>233363</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>242888</xdr:colOff>
+      <xdr:colOff>328613</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -13594,9 +13700,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1290638" y="1447800"/>
-          <a:ext cx="9525" cy="914400"/>
+        <a:xfrm flipH="1">
+          <a:off x="2257425" y="1409700"/>
+          <a:ext cx="23813" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -13754,15 +13860,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13777,7 +13883,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1514475" y="4743450"/>
+          <a:off x="1657350" y="4543425"/>
           <a:ext cx="1295399" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="can">
@@ -14050,15 +14156,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14073,8 +14179,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4057649" y="3829049"/>
-          <a:ext cx="1990725" cy="1466852"/>
+          <a:off x="3809999" y="4410074"/>
+          <a:ext cx="1876425" cy="1552577"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14231,15 +14337,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14254,8 +14360,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4057650" y="6515100"/>
-          <a:ext cx="1971675" cy="609600"/>
+          <a:off x="3771900" y="7143750"/>
+          <a:ext cx="1857375" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14330,15 +14436,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14353,8 +14459,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4038599" y="5305425"/>
-          <a:ext cx="5038725" cy="1219200"/>
+          <a:off x="3800474" y="5943600"/>
+          <a:ext cx="5086351" cy="1276350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14433,7 +14539,7 @@
                 <a:srgbClr val="203864"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>AD Gruppe "DataFactoryUser" o.ä. anlegen und im SQL Server für DataFactory berechtigen</a:t>
+            <a:t>Domäne\DataFactoryUser"  - AD Gruppe für alle Benutzer - Rolle pf_PlanningFactoryUser in DataFactory  Datenbank</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -14799,15 +14905,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>87995</xdr:rowOff>
+      <xdr:colOff>189974</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14836,8 +14942,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2314575" y="5676900"/>
-          <a:ext cx="685800" cy="707120"/>
+          <a:off x="2581275" y="2943225"/>
+          <a:ext cx="323324" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14849,15 +14955,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>170208</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14886,8 +14992,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1228725" y="5695950"/>
-          <a:ext cx="666750" cy="579783"/>
+          <a:off x="1704975" y="2819401"/>
+          <a:ext cx="547687" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14898,16 +15004,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>771526</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>297532</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>535657</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14936,14 +15042,250 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2867026" y="2762250"/>
-          <a:ext cx="345156" cy="304800"/>
+          <a:off x="2952751" y="2962275"/>
+          <a:ext cx="297531" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rechteck 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{705805A2-6BC2-4E43-82FB-F9DC8F3A97FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4324350" y="3476626"/>
+          <a:ext cx="1895475" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>XLS Reports</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>442213</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Grafik 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0818E4B6-11D5-4F4B-9C22-AC18DC17BCC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="2895600"/>
+          <a:ext cx="423163" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Textfeld 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2323C0B-5981-4D1C-9DDB-36599F02BE9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="3838575"/>
+          <a:ext cx="2343150" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Leserechte für AD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Gruppe Domäne\DataFactoryUser</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Schreibrechte für Domäne\saxess</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:srgbClr val="203864"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:srgbClr val="203864"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -38999,273 +39341,273 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.73046875" style="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:4" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:4" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D10" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D17" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D18" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="C24" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="D25" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
       <c r="D26" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D35" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D38" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D41" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D42" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D43" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D44" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D48" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D49" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D50" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D51" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D52" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D55" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D56" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D57" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D62" s="1" t="s">
         <v>94</v>
       </c>
@@ -39285,18 +39627,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
@@ -39315,18 +39657,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
     </row>
   </sheetData>
@@ -39343,18 +39685,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>30</v>
       </c>
@@ -39373,62 +39715,62 @@
       <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.73046875" style="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:7" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:7" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="18"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C12" s="8" t="s">
         <v>38</v>
       </c>
@@ -39439,46 +39781,41 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
+      <c r="D13" s="20"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
+      <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
+      <c r="D14" s="20"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
+      <c r="G14" s="20"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
+      <c r="D15" s="20"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
+      <c r="G15" s="20"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
+      <c r="D16" s="20"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
+      <c r="G16" s="20"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
+      <c r="D17" s="20"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
+      <c r="G17" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C13:D13"/>
@@ -39487,6 +39824,11 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -39502,18 +39844,18 @@
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>32</v>
       </c>
@@ -39533,19 +39875,19 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.73046875" style="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>75</v>
       </c>
@@ -39562,37 +39904,37 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" style="1"/>
-    <col min="3" max="3" width="4.1328125" customWidth="1"/>
-    <col min="13" max="13" width="16.73046875" customWidth="1"/>
-    <col min="14" max="14" width="21.265625" customWidth="1"/>
-    <col min="15" max="15" width="33.86328125" customWidth="1"/>
-    <col min="16" max="16" width="48.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="4.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="21.28515625" customWidth="1"/>
+    <col min="15" max="15" width="33.85546875" customWidth="1"/>
+    <col min="16" max="16" width="48.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:16" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:16" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M5" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M6" s="11"/>
       <c r="N6" s="11" t="s">
         <v>52</v>
@@ -39604,7 +39946,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E7" s="3"/>
       <c r="M7" s="13" t="s">
         <v>57</v>
@@ -39619,7 +39961,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="N8" t="s">
         <v>59</v>
       </c>
@@ -39627,12 +39969,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="N9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M11" s="13" t="s">
         <v>62</v>
       </c>
@@ -39646,7 +39988,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="N12" s="17" t="s">
         <v>69</v>
       </c>
@@ -39657,7 +39999,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M14" s="13" t="s">
         <v>55</v>
       </c>
@@ -39671,7 +40013,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="O15" s="16" t="s">
         <v>105</v>
       </c>
@@ -39679,7 +40021,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="M17" s="13" t="s">
         <v>65</v>
       </c>
@@ -39693,7 +40035,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D19" s="4"/>
       <c r="M19" s="13" t="s">
         <v>56</v>
@@ -39708,7 +40050,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
       <c r="N20" t="s">
         <v>67</v>
       </c>
@@ -39719,12 +40061,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
       <c r="N21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
       <c r="N22" t="s">
         <v>69</v>
       </c>
@@ -39747,24 +40089,24 @@
       <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:21" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:21" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
       <c r="Q2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:21" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -39772,13 +40114,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:21" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.65">
+    <row r="4" spans="2:21" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="Q4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="R6" t="s">
         <v>20</v>
       </c>
@@ -39786,7 +40128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="R7" t="s">
         <v>21</v>
       </c>
@@ -39794,7 +40136,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="R8" t="s">
         <v>22</v>
       </c>
@@ -39802,7 +40144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="R9" t="s">
         <v>26</v>
       </c>
@@ -39810,7 +40152,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="R10" t="s">
         <v>28</v>
       </c>
@@ -39818,67 +40160,67 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O48" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="49" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P49" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="51" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="52" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P52" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="54" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O54" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="55" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="56" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P56" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="57" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="58" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P58" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="61" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O61" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="63" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O63" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="64" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P64" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="65" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P65" t="s">
         <v>50</v>
       </c>
@@ -39898,79 +40240,79 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.73046875" style="1"/>
-    <col min="4" max="4" width="32.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.73046875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.73046875" style="1"/>
-    <col min="8" max="8" width="43.86328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.73046875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.73046875" style="1" customWidth="1"/>
-    <col min="11" max="16" width="10.73046875" style="1"/>
-    <col min="17" max="19" width="5.86328125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.59765625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.59765625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="14.86328125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.265625" style="1" customWidth="1"/>
-    <col min="24" max="26" width="10.73046875" style="1"/>
-    <col min="27" max="27" width="13.59765625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.73046875" style="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" style="1"/>
+    <col min="4" max="4" width="32.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" style="1"/>
+    <col min="8" max="8" width="43.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16" width="10.7109375" style="1"/>
+    <col min="17" max="19" width="5.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" style="1" customWidth="1"/>
+    <col min="24" max="26" width="10.7109375" style="1"/>
+    <col min="27" max="27" width="13.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" style="1"/>
     <col min="29" max="29" width="12" style="1" customWidth="1"/>
-    <col min="30" max="37" width="10.73046875" style="1"/>
+    <col min="30" max="37" width="10.7109375" style="1"/>
     <col min="38" max="38" width="16" style="1" customWidth="1"/>
-    <col min="39" max="16384" width="10.73046875" style="1"/>
+    <col min="39" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:33" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="2:33" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="21" x14ac:dyDescent="0.65">
+    <row r="4" spans="2:33" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:33" ht="81.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:33" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG12" s="1" t="s">
         <v>14</v>
       </c>
@@ -39990,156 +40332,156 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="2:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.65">
+    <row r="3" spans="2:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
     </row>
-    <row r="9" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="14:14" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="14:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="14:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="14:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="14:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="14:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O40" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="14:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="14:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="81" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="82" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="83" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="84" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="85" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="T85" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U86" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U87" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U88" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U89" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="91" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="92" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="93" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="94" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="95" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="96" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="175" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G175" t="s">
         <v>4</v>
       </c>
@@ -40159,18 +40501,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
+++ b/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A67678-7E00-419B-9BA4-FFCFB4B0E728}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6DE5E3-E6D8-4B79-9172-0F566A52DE70}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="758" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,8 +677,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -15268,6 +15268,208 @@
               </a:solidFill>
             </a:rPr>
             <a:t>Schreibrechte für Domäne\saxess</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:srgbClr val="203864"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:srgbClr val="203864"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>770407</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>153106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Grafik 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CD56234-9D53-4AB2-B19C-6CAF88257A91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8963025" y="6896100"/>
+          <a:ext cx="2389657" cy="1839031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>892950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>334709</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>83562</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Grafik 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C5D414B-C805-43AF-AA26-8EB77F48BC5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8941575" y="6086475"/>
+          <a:ext cx="4232834" cy="864612"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1219201</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Textfeld 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69431634-B792-4356-A9F1-46F8AC1FC3AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9029700" y="5476875"/>
+          <a:ext cx="2771776" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Excel Client generisch benannt auf Netzlaufwerk</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> ablegen.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ordner und Daten umbenennen um diese Namen bei Updates konstant zu halten.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -39739,20 +39941,20 @@
       <c r="C4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
@@ -39762,10 +39964,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
@@ -39786,36 +39988,41 @@
         <v>37</v>
       </c>
       <c r="C13" s="18"/>
-      <c r="D13" s="20"/>
+      <c r="D13" s="19"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C14" s="18"/>
-      <c r="D14" s="20"/>
+      <c r="D14" s="19"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="20"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" s="18"/>
-      <c r="D15" s="20"/>
+      <c r="D15" s="19"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="20"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C16" s="18"/>
-      <c r="D16" s="20"/>
+      <c r="D16" s="19"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="20"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="18"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="19"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="20"/>
+      <c r="G17" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C13:D13"/>
@@ -39824,11 +40031,6 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -39903,8 +40105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
+++ b/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6DE5E3-E6D8-4B79-9172-0F566A52DE70}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA04432-9F0F-43BA-A59D-0B2FC0D03E19}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="758" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,8 +677,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -14163,8 +14163,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14180,7 +14180,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3809999" y="4410074"/>
-          <a:ext cx="1876425" cy="1552577"/>
+          <a:ext cx="1876425" cy="1895476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14313,6 +14313,23 @@
                 <a:srgbClr val="203864"/>
               </a:solidFill>
             </a:rPr>
+            <a:t>Powershell ISE (Win 2008 Server)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="203864"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Internet</a:t>
           </a:r>
         </a:p>
@@ -14337,15 +14354,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14360,7 +14377,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3771900" y="7143750"/>
+          <a:off x="3762375" y="7753350"/>
           <a:ext cx="1857375" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14436,15 +14453,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14459,7 +14476,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3800474" y="5943600"/>
+          <a:off x="3762374" y="6553200"/>
           <a:ext cx="5086351" cy="1276350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -39941,20 +39958,20 @@
       <c r="C4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
@@ -39964,10 +39981,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="18"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
@@ -39988,41 +40005,36 @@
         <v>37</v>
       </c>
       <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
+      <c r="D13" s="20"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
+      <c r="D14" s="20"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
+      <c r="D15" s="20"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
+      <c r="D16" s="20"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
+      <c r="D17" s="20"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
+      <c r="G17" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C13:D13"/>
@@ -40031,6 +40043,11 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40106,7 +40123,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
+++ b/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA04432-9F0F-43BA-A59D-0B2FC0D03E19}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDEF437-F375-4889-BE7B-14C480D3076E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="758" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,12 +29,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="137">
   <si>
     <t>Monitoring</t>
   </si>
@@ -513,6 +518,12 @@
   <si>
     <t>mehrere Zugänge</t>
   </si>
+  <si>
+    <t>Zwischenablage gesperrt</t>
+  </si>
+  <si>
+    <t>Zwischenablage nicht gesperrt</t>
+  </si>
 </sst>
 </file>
 
@@ -677,8 +688,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -12820,13 +12831,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12926,13 +12937,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13013,13 +13024,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>695324</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13119,13 +13130,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13225,13 +13236,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>300038</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13278,13 +13289,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>300038</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13331,13 +13342,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13429,13 +13440,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13682,7 +13693,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>328613</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13729,13 +13740,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>290513</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>319088</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13782,13 +13793,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13861,13 +13872,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13936,13 +13947,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>404813</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>204788</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>52389</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14025,13 +14036,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14078,13 +14089,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14157,13 +14168,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14355,13 +14366,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14454,13 +14465,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14621,13 +14632,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>800101</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14770,13 +14781,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>2143126</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14923,13 +14934,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>189974</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14973,13 +14984,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>300037</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15023,13 +15034,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>535657</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15073,13 +15084,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15157,13 +15168,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>442213</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15207,13 +15218,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15309,13 +15320,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>770407</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:colOff>203669</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>153106</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15359,13 +15370,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>892950</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>334709</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2187321</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>83562</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15409,13 +15420,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>1219201</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -39560,273 +39571,273 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.73046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:4" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C6" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D9" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D10" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C12" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D13" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D14" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D15" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D16" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D17" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D18" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C20" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D21" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B23" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" s="10"/>
       <c r="C24" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B25" s="10"/>
       <c r="D25" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B26" s="10"/>
       <c r="D26" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B27" s="10"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C28" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D29" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D30" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D31" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D32" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D33" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D34" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D35" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C37" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D38" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C40" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D41" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D42" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D43" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D44" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C46" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D47" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D48" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D49" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D50" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D51" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D52" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C54" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D55" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D56" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D57" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B60" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C61" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D62" s="1" t="s">
         <v>94</v>
       </c>
@@ -39846,18 +39857,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
@@ -39876,18 +39887,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7"/>
     </row>
   </sheetData>
@@ -39904,18 +39915,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7" t="s">
         <v>30</v>
       </c>
@@ -39934,62 +39945,62 @@
       <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.73046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:7" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="19"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="19"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="8"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C12" s="8" t="s">
         <v>38</v>
       </c>
@@ -40000,41 +40011,46 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="18"/>
-      <c r="D13" s="20"/>
+      <c r="D13" s="19"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C14" s="18"/>
-      <c r="D14" s="20"/>
+      <c r="D14" s="19"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="20"/>
+      <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C15" s="18"/>
-      <c r="D15" s="20"/>
+      <c r="D15" s="19"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="20"/>
+      <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C16" s="18"/>
-      <c r="D16" s="20"/>
+      <c r="D16" s="19"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="20"/>
+      <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C17" s="18"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="19"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="20"/>
+      <c r="G17" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C13:D13"/>
@@ -40043,11 +40059,6 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40063,18 +40074,18 @@
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7" t="s">
         <v>32</v>
       </c>
@@ -40094,19 +40105,19 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.73046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7" t="s">
         <v>75</v>
       </c>
@@ -40120,40 +40131,40 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="4.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="21.28515625" customWidth="1"/>
-    <col min="15" max="15" width="33.85546875" customWidth="1"/>
-    <col min="16" max="16" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" style="1"/>
+    <col min="3" max="3" width="4.1328125" customWidth="1"/>
+    <col min="13" max="13" width="16.73046875" customWidth="1"/>
+    <col min="14" max="14" width="29.19921875" customWidth="1"/>
+    <col min="15" max="15" width="33.86328125" customWidth="1"/>
+    <col min="16" max="16" width="48.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:16" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:16" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
       <c r="M5" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
       <c r="M6" s="11"/>
       <c r="N6" s="11" t="s">
         <v>52</v>
@@ -40165,7 +40176,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
       <c r="E7" s="3"/>
       <c r="M7" s="13" t="s">
         <v>57</v>
@@ -40180,7 +40191,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
       <c r="N8" t="s">
         <v>59</v>
       </c>
@@ -40188,108 +40199,116 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
       <c r="N9" t="s">
         <v>134</v>
       </c>
+      <c r="P9" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M11" s="13" t="s">
+    <row r="10" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="N10" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="M12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="N12" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="O12" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="P11" s="12" t="s">
+      <c r="P12" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="N12" s="17" t="s">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="N13" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="O12" s="17" t="s">
+      <c r="O13" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="P12" s="17" t="s">
+      <c r="P13" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M14" s="13" t="s">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="M15" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="N15" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="O14" s="12" t="s">
+      <c r="O15" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="P14" s="12" t="s">
+      <c r="P15" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="O15" s="16" t="s">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="O16" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="P15" s="16" t="s">
+      <c r="P16" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="M17" s="13" t="s">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.45">
+      <c r="M18" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="N17" s="12" t="s">
+      <c r="N18" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O18" s="15">
         <v>2013</v>
       </c>
-      <c r="P17" s="15" t="s">
+      <c r="P18" s="15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D19" s="4"/>
-      <c r="M19" s="13" t="s">
+    <row r="20" spans="4:16" x14ac:dyDescent="0.45">
+      <c r="D20" s="4"/>
+      <c r="M20" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="N20" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="O19" s="12" t="s">
+      <c r="O20" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="P19" s="12" t="s">
+      <c r="P20" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="N20" t="s">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.45">
+      <c r="N21" t="s">
         <v>67</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O21" t="s">
         <v>67</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P21" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="N21" t="s">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.45">
+      <c r="N22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="N22" t="s">
+    <row r="23" spans="4:16" x14ac:dyDescent="0.45">
+      <c r="N23" t="s">
         <v>69</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P23" t="s">
         <v>103</v>
       </c>
     </row>
@@ -40308,24 +40327,24 @@
       <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:21" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:21" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7"/>
       <c r="Q2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:21" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -40333,13 +40352,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:21" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:21" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.65">
       <c r="B4" s="2"/>
       <c r="Q4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
       <c r="R6" t="s">
         <v>20</v>
       </c>
@@ -40347,7 +40366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
       <c r="R7" t="s">
         <v>21</v>
       </c>
@@ -40355,7 +40374,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
       <c r="R8" t="s">
         <v>22</v>
       </c>
@@ -40363,7 +40382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
       <c r="R9" t="s">
         <v>26</v>
       </c>
@@ -40371,7 +40390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
       <c r="R10" t="s">
         <v>28</v>
       </c>
@@ -40379,67 +40398,67 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="15:15" x14ac:dyDescent="0.45">
       <c r="O48" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="15:16" x14ac:dyDescent="0.45">
       <c r="P49" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="15:16" x14ac:dyDescent="0.45">
       <c r="P51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="15:16" x14ac:dyDescent="0.45">
       <c r="P52" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O54" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="15:16" x14ac:dyDescent="0.45">
       <c r="P55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="15:16" x14ac:dyDescent="0.45">
       <c r="P56" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="15:16" x14ac:dyDescent="0.45">
       <c r="P57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="15:16" x14ac:dyDescent="0.45">
       <c r="P58" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O61" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O63" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="15:16" x14ac:dyDescent="0.45">
       <c r="P64" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P65" t="s">
         <v>50</v>
       </c>
@@ -40459,79 +40478,79 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" style="1"/>
-    <col min="4" max="4" width="32.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" style="1"/>
-    <col min="8" max="8" width="43.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="1" customWidth="1"/>
-    <col min="11" max="16" width="10.7109375" style="1"/>
-    <col min="17" max="19" width="5.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.28515625" style="1" customWidth="1"/>
-    <col min="24" max="26" width="10.7109375" style="1"/>
-    <col min="27" max="27" width="13.5703125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.73046875" style="1"/>
+    <col min="4" max="4" width="32.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.73046875" style="1"/>
+    <col min="8" max="8" width="43.86328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.73046875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.73046875" style="1" customWidth="1"/>
+    <col min="11" max="16" width="10.73046875" style="1"/>
+    <col min="17" max="19" width="5.86328125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.59765625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.59765625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.86328125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.265625" style="1" customWidth="1"/>
+    <col min="24" max="26" width="10.73046875" style="1"/>
+    <col min="27" max="27" width="13.59765625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.73046875" style="1"/>
     <col min="29" max="29" width="12" style="1" customWidth="1"/>
-    <col min="30" max="37" width="10.7109375" style="1"/>
+    <col min="30" max="37" width="10.73046875" style="1"/>
     <col min="38" max="38" width="16" style="1" customWidth="1"/>
-    <col min="39" max="16384" width="10.7109375" style="1"/>
+    <col min="39" max="16384" width="10.73046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:33" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="2:33" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:33" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" ht="21" x14ac:dyDescent="0.65">
       <c r="B4" s="2"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.45">
       <c r="AG6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:33" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:33" ht="81.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AG7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.45">
       <c r="AG8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.45">
       <c r="AG9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.45">
       <c r="AG10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.45">
       <c r="AG11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.45">
       <c r="AG12" s="1" t="s">
         <v>14</v>
       </c>
@@ -40551,156 +40570,156 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="2:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.65">
       <c r="B3" s="2"/>
     </row>
-    <row r="9" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="14:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="14:14" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="14:14" x14ac:dyDescent="0.45">
       <c r="N31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="14:15" x14ac:dyDescent="0.45">
       <c r="N38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="14:15" x14ac:dyDescent="0.45">
       <c r="O39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="14:15" x14ac:dyDescent="0.45">
       <c r="O40" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="14:15" x14ac:dyDescent="0.45">
       <c r="O41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="14:15" x14ac:dyDescent="0.45">
       <c r="O42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="81" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="82" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="83" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="84" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="85" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="T85" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="U86" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="U87" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="U88" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="U89" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="91" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="92" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="93" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="94" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="95" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="96" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="175" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G175" t="s">
         <v>4</v>
       </c>
@@ -40720,18 +40739,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
+++ b/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDEF437-F375-4889-BE7B-14C480D3076E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089CA63C-9E17-4619-9EA7-D7068F9032BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="758" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="138">
   <si>
     <t>Monitoring</t>
   </si>
@@ -524,6 +524,9 @@
   <si>
     <t>Zwischenablage nicht gesperrt</t>
   </si>
+  <si>
+    <t>RDP über RDP Gateway</t>
+  </si>
 </sst>
 </file>
 
@@ -662,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -688,8 +691,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -12831,13 +12836,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12937,13 +12942,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13024,13 +13029,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>695324</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13130,13 +13135,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13236,13 +13241,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>300038</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13289,13 +13294,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>300038</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13342,13 +13347,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13440,13 +13445,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13608,13 +13613,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13693,7 +13698,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>328613</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13740,13 +13745,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>290513</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>319088</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13793,13 +13798,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13872,13 +13877,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13947,13 +13952,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>404813</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>204788</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>52389</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14036,13 +14041,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14089,13 +14094,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14168,13 +14173,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14366,13 +14371,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14465,13 +14470,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14632,13 +14637,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>800101</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14781,13 +14786,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>2143126</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14934,13 +14939,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>189974</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14984,13 +14989,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>300037</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15034,13 +15039,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>535657</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15084,13 +15089,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15168,13 +15173,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>442213</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15218,13 +15223,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15320,13 +15325,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>203669</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>153106</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15370,13 +15375,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>892950</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>2187321</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>83562</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15420,13 +15425,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>1219201</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15499,6 +15504,148 @@
             </a:rPr>
             <a:t>Ordner und Daten umbenennen um diese Namen bei Updates konstant zu halten.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:srgbClr val="203864"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:srgbClr val="203864"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Gerader Verbinder 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9CBD4D9-B5F4-477D-9063-804D84FF1E59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="400050" y="5295900"/>
+          <a:ext cx="733426" cy="14288"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Textfeld 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC930F65-E704-4A2F-8DB2-0DDC91455DB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="4953000"/>
+          <a:ext cx="847725" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>VPN Access</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="203864"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="de-DE" sz="800">
@@ -39571,273 +39718,273 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.73046875" style="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:4" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:4" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D10" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D17" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D18" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="C24" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="D25" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
       <c r="D26" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D35" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D38" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D41" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D42" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D43" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D44" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D48" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D49" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D50" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D51" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D52" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D55" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D56" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D57" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D62" s="1" t="s">
         <v>94</v>
       </c>
@@ -39857,18 +40004,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
@@ -39887,18 +40034,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
     </row>
   </sheetData>
@@ -39915,18 +40062,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>30</v>
       </c>
@@ -39945,62 +40092,62 @@
       <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.73046875" style="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:7" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:7" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="18"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C12" s="8" t="s">
         <v>38</v>
       </c>
@@ -40011,46 +40158,41 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
+      <c r="D13" s="20"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
+      <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
+      <c r="D14" s="20"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
+      <c r="G14" s="20"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
+      <c r="D15" s="20"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
+      <c r="G15" s="20"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
+      <c r="D16" s="20"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
+      <c r="G16" s="20"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
+      <c r="D17" s="20"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
+      <c r="G17" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C13:D13"/>
@@ -40059,6 +40201,11 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40074,18 +40221,18 @@
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>32</v>
       </c>
@@ -40105,19 +40252,19 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.73046875" style="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>75</v>
       </c>
@@ -40131,40 +40278,40 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" style="1"/>
-    <col min="3" max="3" width="4.1328125" customWidth="1"/>
-    <col min="13" max="13" width="16.73046875" customWidth="1"/>
-    <col min="14" max="14" width="29.19921875" customWidth="1"/>
-    <col min="15" max="15" width="33.86328125" customWidth="1"/>
-    <col min="16" max="16" width="48.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="4.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="29.140625" customWidth="1"/>
+    <col min="15" max="15" width="33.85546875" customWidth="1"/>
+    <col min="16" max="16" width="48.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:16" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:16" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M5" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M6" s="11"/>
       <c r="N6" s="11" t="s">
         <v>52</v>
@@ -40176,13 +40323,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E7" s="3"/>
       <c r="M7" s="13" t="s">
         <v>57</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="O7" s="12" t="s">
         <v>74</v>
@@ -40191,124 +40338,133 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="N8" t="s">
+    <row r="8" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="3"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="N9" t="s">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
         <v>134</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="N10" s="1" t="s">
+    <row r="11" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="M12" s="13" t="s">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N13" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="O13" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="P12" s="12" t="s">
+      <c r="P13" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="N13" s="17" t="s">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N14" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="O13" s="17" t="s">
+      <c r="O14" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="P13" s="17" t="s">
+      <c r="P14" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="M15" s="13" t="s">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M16" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="N15" s="12" t="s">
+      <c r="N16" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="O15" s="12" t="s">
+      <c r="O16" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="P15" s="12" t="s">
+      <c r="P16" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="O16" s="16" t="s">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="O17" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="P16" s="16" t="s">
+      <c r="P17" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.45">
-      <c r="M18" s="13" t="s">
+    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M19" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="N19" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="O18" s="15">
+      <c r="O19" s="15">
         <v>2013</v>
       </c>
-      <c r="P18" s="15" t="s">
+      <c r="P19" s="15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.45">
-      <c r="D20" s="4"/>
-      <c r="M20" s="13" t="s">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D21" s="4"/>
+      <c r="M21" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="N21" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="O20" s="12" t="s">
+      <c r="O21" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="P20" s="12" t="s">
+      <c r="P21" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.45">
-      <c r="N21" t="s">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
         <v>67</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O22" t="s">
         <v>67</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.45">
-      <c r="N22" t="s">
+    <row r="23" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.45">
-      <c r="N23" t="s">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
         <v>69</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P24" t="s">
         <v>103</v>
       </c>
     </row>
@@ -40327,24 +40483,24 @@
       <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:21" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:21" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
       <c r="Q2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:21" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -40352,13 +40508,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:21" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.65">
+    <row r="4" spans="2:21" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="Q4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="R6" t="s">
         <v>20</v>
       </c>
@@ -40366,7 +40522,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="R7" t="s">
         <v>21</v>
       </c>
@@ -40374,7 +40530,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="R8" t="s">
         <v>22</v>
       </c>
@@ -40382,7 +40538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="R9" t="s">
         <v>26</v>
       </c>
@@ -40390,7 +40546,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="R10" t="s">
         <v>28</v>
       </c>
@@ -40398,67 +40554,67 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="15:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O48" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="49" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P49" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="51" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="52" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P52" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="54" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O54" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="55" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="56" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P56" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="57" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="58" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P58" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="61" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O61" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="63" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O63" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="64" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P64" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="65" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P65" t="s">
         <v>50</v>
       </c>
@@ -40478,79 +40634,79 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.73046875" style="1"/>
-    <col min="4" max="4" width="32.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.73046875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.73046875" style="1"/>
-    <col min="8" max="8" width="43.86328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.73046875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.73046875" style="1" customWidth="1"/>
-    <col min="11" max="16" width="10.73046875" style="1"/>
-    <col min="17" max="19" width="5.86328125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.59765625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.59765625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="14.86328125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.265625" style="1" customWidth="1"/>
-    <col min="24" max="26" width="10.73046875" style="1"/>
-    <col min="27" max="27" width="13.59765625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.73046875" style="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" style="1"/>
+    <col min="4" max="4" width="32.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" style="1"/>
+    <col min="8" max="8" width="43.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16" width="10.7109375" style="1"/>
+    <col min="17" max="19" width="5.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" style="1" customWidth="1"/>
+    <col min="24" max="26" width="10.7109375" style="1"/>
+    <col min="27" max="27" width="13.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" style="1"/>
     <col min="29" max="29" width="12" style="1" customWidth="1"/>
-    <col min="30" max="37" width="10.73046875" style="1"/>
+    <col min="30" max="37" width="10.7109375" style="1"/>
     <col min="38" max="38" width="16" style="1" customWidth="1"/>
-    <col min="39" max="16384" width="10.73046875" style="1"/>
+    <col min="39" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:33" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="2:33" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="21" x14ac:dyDescent="0.65">
+    <row r="4" spans="2:33" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:33" ht="81.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:33" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG12" s="1" t="s">
         <v>14</v>
       </c>
@@ -40570,156 +40726,156 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="2:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.65">
+    <row r="3" spans="2:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
     </row>
-    <row r="9" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="14:14" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="14:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="14:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="14:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="14:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="14:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O40" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="14:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="14:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="81" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="82" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="83" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="84" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="85" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="T85" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U86" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U87" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U88" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U89" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="91" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="92" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="93" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="94" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="95" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="96" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="175" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G175" t="s">
         <v>4</v>
       </c>
@@ -40739,18 +40895,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
+++ b/8. Harmonising standards/Create a project/Vorlage Betriebsdokumentation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089CA63C-9E17-4619-9EA7-D7068F9032BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5828BBFA-24A8-48EE-8616-3677410FF4F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="758" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,10 +522,10 @@
     <t>Zwischenablage gesperrt</t>
   </si>
   <si>
-    <t>Zwischenablage nicht gesperrt</t>
+    <t>RDP über RDP Gateway</t>
   </si>
   <si>
-    <t>RDP über RDP Gateway</t>
+    <t>Zwischenablage nicht gesperrt für Text</t>
   </si>
 </sst>
 </file>
@@ -690,11 +690,11 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -40113,23 +40113,23 @@
       <c r="B4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
@@ -40138,11 +40138,11 @@
       <c r="B10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
@@ -40162,37 +40162,42 @@
       <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="20"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="18"/>
-      <c r="D14" s="20"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="18"/>
-      <c r="D15" s="20"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="18"/>
-      <c r="D16" s="20"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="18"/>
-      <c r="D17" s="20"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C13:D13"/>
@@ -40201,11 +40206,6 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40281,7 +40281,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40329,7 +40329,7 @@
         <v>57</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O7" s="12" t="s">
         <v>74</v>
@@ -40340,12 +40340,12 @@
     </row>
     <row r="8" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E8" s="3"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="22" t="s">
+      <c r="M8" s="18"/>
+      <c r="N8" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="N9" t="s">
@@ -40365,7 +40365,7 @@
     </row>
     <row r="11" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N11" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
